--- a/0. Nomina/2. Descuentos - Retardos/2025/04. Retardos - ABR.xlsx
+++ b/0. Nomina/2. Descuentos - Retardos/2025/04. Retardos - ABR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Retardos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA1AC8D-9A7B-4E6D-BFE1-3ED65C5C1305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E0F30-D726-4ECE-83F0-E8E422091291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEA9F4EF-C237-4344-8D76-DA654B147599}"/>
   </bookViews>
@@ -832,7 +832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB9AAF-F9C8-433A-828A-83DBC5154AE3}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -993,7 +995,9 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="16"/>
@@ -1009,7 +1013,9 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
+      <c r="S3" s="27">
+        <v>1</v>
+      </c>
       <c r="T3" s="28"/>
       <c r="U3" s="29"/>
       <c r="V3" s="30"/>
@@ -1026,7 +1032,7 @@
       <c r="AG3" s="41"/>
       <c r="AH3" s="9">
         <f t="shared" ref="AH3:AH11" si="0">+SUM(C3:AG3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="2"/>
     </row>
@@ -1036,7 +1042,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
@@ -1050,7 +1058,9 @@
       <c r="O4" s="23"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
+      <c r="R4" s="26">
+        <v>1</v>
+      </c>
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
       <c r="U4" s="29"/>
@@ -1068,7 +1078,7 @@
       <c r="AG4" s="41"/>
       <c r="AH4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="2"/>
     </row>
@@ -1079,7 +1089,9 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -1091,7 +1103,9 @@
       <c r="N5" s="22"/>
       <c r="O5" s="23"/>
       <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="25">
+        <v>1</v>
+      </c>
       <c r="R5" s="26"/>
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
@@ -1110,7 +1124,7 @@
       <c r="AG5" s="41"/>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="2"/>
     </row>
@@ -1122,7 +1136,9 @@
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="17"/>
@@ -1132,7 +1148,9 @@
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
+      <c r="P6" s="24">
+        <v>1</v>
+      </c>
       <c r="Q6" s="25"/>
       <c r="R6" s="26"/>
       <c r="S6" s="27"/>
@@ -1152,7 +1170,7 @@
       <c r="AG6" s="41"/>
       <c r="AH6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="2"/>
     </row>
@@ -1165,7 +1183,9 @@
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -1173,7 +1193,9 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
+      <c r="O7" s="23">
+        <v>1</v>
+      </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="26"/>
@@ -1194,26 +1216,52 @@
       <c r="AG7" s="41"/>
       <c r="AH7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <v>1</v>
+      </c>
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="26"/>
@@ -1234,7 +1282,7 @@
       <c r="AG8" s="41"/>
       <c r="AH8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI8" s="2"/>
     </row>
@@ -1255,7 +1303,9 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="23"/>
       <c r="P9" s="24"/>
@@ -1264,7 +1314,9 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
+      <c r="V9" s="30">
+        <v>1</v>
+      </c>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="33"/>
@@ -1278,7 +1330,7 @@
       <c r="AG9" s="41"/>
       <c r="AH9" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="2"/>
     </row>
@@ -1292,11 +1344,15 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="20">
+        <v>1</v>
+      </c>
       <c r="M10" s="21"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
@@ -1320,7 +1376,7 @@
       <c r="AG10" s="41"/>
       <c r="AH10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="2"/>
     </row>
@@ -1335,9 +1391,13 @@
       <c r="F11" s="16"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
       <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
       <c r="N11" s="22"/>
@@ -1362,7 +1422,7 @@
       <c r="AG11" s="41"/>
       <c r="AH11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="2"/>
     </row>
@@ -1376,7 +1436,9 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
@@ -1402,7 +1464,7 @@
       <c r="AG12" s="41"/>
       <c r="AH12" s="10">
         <f t="shared" ref="AH12" si="1">+SUM(C12:AG12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="2"/>
     </row>

--- a/0. Nomina/2. Descuentos - Retardos/2025/04. Retardos - ABR.xlsx
+++ b/0. Nomina/2. Descuentos - Retardos/2025/04. Retardos - ABR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Retardos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E0F30-D726-4ECE-83F0-E8E422091291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D04422-D739-43A8-8F88-8DF82BD6822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEA9F4EF-C237-4344-8D76-DA654B147599}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>Partícipes ForEver</t>
+    <t>Partícipes FOREVER</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -995,13 +995,15 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
@@ -1013,9 +1015,7 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="26"/>
-      <c r="S3" s="27">
-        <v>1</v>
-      </c>
+      <c r="S3" s="27"/>
       <c r="T3" s="28"/>
       <c r="U3" s="29"/>
       <c r="V3" s="30"/>
@@ -1041,10 +1041,10 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="13"/>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
@@ -1058,9 +1058,7 @@
       <c r="O4" s="23"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="26">
-        <v>1</v>
-      </c>
+      <c r="R4" s="26"/>
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
       <c r="U4" s="29"/>
@@ -1078,7 +1076,7 @@
       <c r="AG4" s="41"/>
       <c r="AH4" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="2"/>
     </row>
@@ -1089,9 +1087,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="16"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -1103,9 +1099,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="23"/>
       <c r="P5" s="24"/>
-      <c r="Q5" s="25">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="25"/>
       <c r="R5" s="26"/>
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
@@ -1124,7 +1118,7 @@
       <c r="AG5" s="41"/>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="2"/>
     </row>
@@ -1133,12 +1127,16 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="17"/>
@@ -1148,9 +1146,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="24">
-        <v>1</v>
-      </c>
+      <c r="P6" s="24"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="26"/>
       <c r="S6" s="27"/>
@@ -1170,7 +1166,7 @@
       <c r="AG6" s="41"/>
       <c r="AH6" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="2"/>
     </row>
@@ -1179,10 +1175,16 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
@@ -1193,9 +1195,7 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="23">
-        <v>1</v>
-      </c>
+      <c r="O7" s="23"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="26"/>
@@ -1216,52 +1216,26 @@
       <c r="AG7" s="41"/>
       <c r="AH7" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="20">
-        <v>1</v>
-      </c>
-      <c r="M8" s="21">
-        <v>1</v>
-      </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="O8" s="23">
-        <v>1</v>
-      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="26"/>
@@ -1282,7 +1256,7 @@
       <c r="AG8" s="41"/>
       <c r="AH8" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="2"/>
     </row>
@@ -1303,9 +1277,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="21">
-        <v>1</v>
-      </c>
+      <c r="M9" s="21"/>
       <c r="N9" s="22"/>
       <c r="O9" s="23"/>
       <c r="P9" s="24"/>
@@ -1314,9 +1286,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="30">
-        <v>1</v>
-      </c>
+      <c r="V9" s="30"/>
       <c r="W9" s="31"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="33"/>
@@ -1330,7 +1300,7 @@
       <c r="AG9" s="41"/>
       <c r="AH9" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="2"/>
     </row>
@@ -1343,16 +1313,14 @@
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="20">
-        <v>1</v>
-      </c>
+      <c r="L10" s="20"/>
       <c r="M10" s="21"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
@@ -1376,7 +1344,7 @@
       <c r="AG10" s="41"/>
       <c r="AH10" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="2"/>
     </row>
@@ -1388,16 +1356,14 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
       <c r="N11" s="22"/>
@@ -1422,7 +1388,7 @@
       <c r="AG11" s="41"/>
       <c r="AH11" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="2"/>
     </row>
@@ -1436,9 +1402,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
+      <c r="J12" s="18"/>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
@@ -1464,7 +1428,7 @@
       <c r="AG12" s="41"/>
       <c r="AH12" s="10">
         <f t="shared" ref="AH12" si="1">+SUM(C12:AG12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2"/>
     </row>
@@ -1506,9 +1470,9 @@
       <c r="AI13" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4y206n4Kr64XuIpPW0n3tB0GIZXq6JHE3uXZO/IZ4FMl8lL/8YJm7bK2NGbS9X2Jt7Jltn0KKj0umDD2UkN5pw==" saltValue="YIjvOp+27dkl2yg13y2YwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kIl1eT4p7u9oAHiqIi6pyUn5m33pODQl6CvTOwCupDcFYOZ/TdlOamSLmRN8qTqPz+JxXv/VXDfbuGgKwsptsw==" saltValue="+Zf5RFtZI2lC9CKCikk/vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C3:AG12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
